--- a/static/paint.xlsx
+++ b/static/paint.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Apps\Quantity Servey\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7B9773-FB1B-46C1-91D1-ED99FE0F749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -38,43 +39,67 @@
     <t>description</t>
   </si>
   <si>
-    <t>good quality</t>
-  </si>
-  <si>
-    <t>perfect condition</t>
-  </si>
-  <si>
-    <t>curved sheets</t>
-  </si>
-  <si>
-    <t>tile ridge cap</t>
-  </si>
-  <si>
-    <t>high profile</t>
-  </si>
-  <si>
-    <t>ondulee</t>
-  </si>
-  <si>
-    <t>super echo profile</t>
-  </si>
-  <si>
-    <t>tileform sheet</t>
-  </si>
-  <si>
-    <t>wave tileform sheet</t>
-  </si>
-  <si>
-    <t>galvanised sheet</t>
-  </si>
-  <si>
-    <t>open sections</t>
+    <t>Wall Master is a durable premium paint with a textured finish. It is weatherproof and ideal for exterior walls.</t>
+  </si>
+  <si>
+    <t>Weather Guard is a premium quality latex paint ideal for exterior surfaces.</t>
+  </si>
+  <si>
+    <t>Weather Guard</t>
+  </si>
+  <si>
+    <t>Wall Master</t>
+  </si>
+  <si>
+    <t>A high quality, based on styrene acrylic emulsion, it suitable for ceilings and walls internally or externally whether new or previously painted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emulsion paint </t>
+  </si>
+  <si>
+    <t>Gloss Enamel</t>
+  </si>
+  <si>
+    <t>Ni amarangi meza yamavuta,asigwa ku byuma ,imbaho nahandi. Akaba atuma aho asize harabagirana ndetse hakaramba.</t>
+  </si>
+  <si>
+    <t>Fast Dry</t>
+  </si>
+  <si>
+    <t>Fast dry ni amarangi y’amavuta meza afite umwihariko wokuma vuba,ndetse akagaragara neza kucyo asizeho cyane cyane iyo asigishijwe</t>
+  </si>
+  <si>
+    <t>Economy Emulsion Paints</t>
+  </si>
+  <si>
+    <t>Economy Paints ni amarangi meza akoreshwa cyane kandi adahenze akaba asigwa munzu imbere no hanze</t>
+  </si>
+  <si>
+    <t>Super Gloss</t>
+  </si>
+  <si>
+    <t>Super gloss ni ubwoko bw’amarangi y’amavuta yo kurwego ro hejuru; akaba afite umwihariko wo gukayangana,no kuramba ndetse akaba anatubuka cyane.</t>
+  </si>
+  <si>
+    <t>Silk Vinyl Emulsion</t>
+  </si>
+  <si>
+    <t>Ni irangi ryo kurwego rwohejuru ryagenewe gusigwa mu nzu imbere kandi ryonzwa mugihe ryanduye rikaba Irangi rigaragaza umucyo kandi rigashashagirana aho risize</t>
+  </si>
+  <si>
+    <t>Economy Gloss</t>
+  </si>
+  <si>
+    <t>Ni amarangi y’amazi meza,asigwa cyane munzu imbere no hanze, ariko ntiyihanganira izuba nimvura kandi akaba ahendutse.</t>
+  </si>
+  <si>
+    <t>Weather guard ni Irangi ryagenewe gusigwa hanze, Irangi rifite ubushobozi bwo guhanga n’imihindagurikire y’ibihe , Irangi ryozwa mu gihe ryanduye</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,21 +410,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,26 +438,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>10100</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>15000</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -441,105 +466,120 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>39</v>
+        <v>17000</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>12000</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>15000</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>30900</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>39</v>
+        <v>45000</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>39</v>
+        <v>30000</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>39</v>
+        <v>21000</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>12500</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>